--- a/coffeemap/coffeemap.xlsx
+++ b/coffeemap/coffeemap.xlsx
@@ -15,13 +15,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
   <si>
+    <t>State/Area</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>Medical exemptions†</t>
+  </si>
+  <si>
     <t>State</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>State/Area</t>
+    <t>value</t>
+  </si>
+  <si>
+    <t>headline</t>
+  </si>
+  <si>
+    <t>Nonmedical exemptions†</t>
+  </si>
+  <si>
+    <t>Total exemptions†</t>
+  </si>
+  <si>
+    <t>Top 11 Chicago cafes for public radio lovers</t>
   </si>
   <si>
     <t>Exemption rate</t>
@@ -30,7 +48,28 @@
     <t>Oregon</t>
   </si>
   <si>
-    <t>Medical exemptions†</t>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>(%)</t>
+  </si>
+  <si>
+    <t>Religious no.</t>
+  </si>
+  <si>
+    <t>Philosophic no.</t>
+  </si>
+  <si>
+    <t>Total no.</t>
+  </si>
+  <si>
+    <t>2012–13 (%)</t>
+  </si>
+  <si>
+    <t>2011–12 (%)</t>
+  </si>
+  <si>
+    <t>Percentage point difference</t>
   </si>
   <si>
     <t>Vermont</t>
@@ -48,70 +87,31 @@
     <t>Alaska</t>
   </si>
   <si>
+    <t>subhed</t>
+  </si>
+  <si>
     <t>Washington††</t>
   </si>
   <si>
+    <t>WBEZ asked its Facebook followers to name their favorite cafes, and the comments came pouring like a java tsunami. Here are the most popular cafes by the number of comments listeners left.</t>
+  </si>
+  <si>
     <t>Wisconsin</t>
   </si>
   <si>
-    <t>Nonmedical exemptions†</t>
+    <t>footnote</t>
   </si>
   <si>
     <t>Colorado</t>
   </si>
   <si>
+    <t>*Multiple locations</t>
+  </si>
+  <si>
+    <t>—§</t>
+  </si>
+  <si>
     <t>Maine</t>
-  </si>
-  <si>
-    <t>Total exemptions†</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>headline</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>(%)</t>
-  </si>
-  <si>
-    <t>Religious no.</t>
-  </si>
-  <si>
-    <t>Philosophic no.</t>
-  </si>
-  <si>
-    <t>Total no.</t>
-  </si>
-  <si>
-    <t>Top 11 Chicago cafes for public radio lovers</t>
-  </si>
-  <si>
-    <t>2012–13 (%)</t>
-  </si>
-  <si>
-    <t>2011–12 (%)</t>
-  </si>
-  <si>
-    <t>Percentage point difference</t>
-  </si>
-  <si>
-    <t>subhed</t>
-  </si>
-  <si>
-    <t>WBEZ asked its Facebook followers to name their favorite cafes, and the comments came pouring like a java tsunami. Here are the most popular cafes by the number of comments listeners left.</t>
-  </si>
-  <si>
-    <t>footnote</t>
-  </si>
-  <si>
-    <t>*Multiple locations</t>
-  </si>
-  <si>
-    <t>—§</t>
   </si>
   <si>
     <t>source</t>
@@ -292,20 +292,20 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <b/>
-      <sz val="11.0"/>
-    </font>
-    <font>
       <sz val="11.0"/>
     </font>
     <font>
       <b/>
       <sz val="14.0"/>
     </font>
+    <font/>
     <font>
       <sz val="14.0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -330,24 +330,13 @@
     </fill>
   </fills>
   <borders count="3">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -358,43 +347,43 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -428,39 +417,39 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>17</v>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
+      <c r="A2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -468,7 +457,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -480,26 +469,26 @@
       <c r="B7" s="13"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>0</v>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -521,171 +510,171 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="4"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="6"/>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>27</v>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7">
         <v>72.0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="7">
         <v>-0.2</v>
       </c>
       <c r="D3" s="9">
         <v>3010.0</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>32</v>
+      <c r="E3" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F3" s="11">
         <v>3010.0</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="7">
         <v>-6.4</v>
       </c>
       <c r="H3" s="11">
         <v>3010.0</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="7">
         <v>-6.4</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="7">
         <v>-5.9</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7">
         <v>30.0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="7">
         <v>-0.4</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <v>14.0</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
         <v>371.0</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>385.0</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="7">
         <v>-5.7</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>415.0</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="7">
         <v>-6.1</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="7">
         <v>-5.7</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="7">
         <v>0.4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
+      <c r="A5" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="B5" s="9">
         <v>2017.0</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="7">
         <v>-1.2</v>
       </c>
       <c r="D5" s="9">
         <v>8082.0</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>32</v>
+      <c r="E5" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F5" s="11">
         <v>8082.0</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="7">
         <v>-4.8</v>
       </c>
       <c r="H5" s="11">
         <v>10099.0</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="7">
         <v>-6.1</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="7">
         <v>-5.5</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="7">
         <v>0.6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7">
         <v>90.0</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>-0.4</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="7">
         <v>171.0</v>
       </c>
       <c r="E6" s="9">
@@ -694,30 +683,30 @@
       <c r="F6" s="11">
         <v>1309.0</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="7">
         <v>-5.5</v>
       </c>
       <c r="H6" s="11">
         <v>1399.0</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="7">
         <v>-5.9</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="7">
         <v>-5.4</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="A7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="7">
         <v>699.0</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="7">
         <v>-0.6</v>
       </c>
       <c r="D7" s="9">
@@ -729,68 +718,68 @@
       <c r="F7" s="11">
         <v>6626.0</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="7">
         <v>-5.3</v>
       </c>
       <c r="H7" s="11">
         <v>7325.0</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="7">
         <v>-5.9</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="7">
         <v>-5.5</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="7">
         <v>0.4</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7">
         <v>162.0</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="7">
         <v>-1.6</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="7">
         <v>415.0</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1">
         <v>415.0</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="7">
         <v>-4.0</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>564.0</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="7">
         <v>-5.6</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="7">
         <v>-7.0</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="7">
         <v>-1.4</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
+      <c r="A9" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="B9" s="9">
         <v>1092.0</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="7">
         <v>-1.2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="7">
         <v>274.0</v>
       </c>
       <c r="E9" s="9">
@@ -799,33 +788,33 @@
       <c r="F9" s="11">
         <v>3048.0</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="7">
         <v>-3.5</v>
       </c>
       <c r="H9" s="11">
         <v>4077.0</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="7">
         <v>-4.6</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="7">
         <v>-4.7</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="7">
         <v>-0.1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="A10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7">
         <v>472.0</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="7">
         <v>-0.5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="7">
         <v>276.0</v>
       </c>
       <c r="E10" s="9">
@@ -834,33 +823,33 @@
       <c r="F10" s="11">
         <v>3907.0</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="7">
         <v>-4.0</v>
       </c>
       <c r="H10" s="11">
         <v>4380.0</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="7">
         <v>-4.5</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="7">
         <v>-4.5</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="7">
         <v>0.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="A11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="7">
         <v>191.0</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="7">
         <v>-0.3</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="7">
         <v>0.0</v>
       </c>
       <c r="E11" s="9">
@@ -869,103 +858,103 @@
       <c r="F11" s="11">
         <v>2678.0</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="7">
         <v>-4.0</v>
       </c>
       <c r="H11" s="11">
         <v>2869.0</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="7">
         <v>-4.3</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="7">
         <v>-5.6</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="7">
         <v>-1.3</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="A12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="7">
         <v>61.0</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="7">
         <v>-0.4</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="7">
         <v>17.0</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="7">
         <v>541.0</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>559.0</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="7">
         <v>-3.9</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>620.0</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="7">
         <v>-4.3</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="7">
         <v>-3.9</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="7">
         <v>0.4</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="7">
         <v>315.0</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="7">
         <v>-0.3</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="11">
         <v>3475.0</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="7">
         <v>-3.9</v>
       </c>
       <c r="H13" s="11">
         <v>3790.0</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="7">
         <v>-4.2</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="7">
         <v>-3.7</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="7">
         <v>83.0</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="7">
         <v>-0.2</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="7">
         <v>6.0</v>
       </c>
       <c r="E14" s="9">
@@ -974,1394 +963,1394 @@
       <c r="F14" s="11">
         <v>2016.0</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="7">
         <v>-3.7</v>
       </c>
       <c r="H14" s="11">
         <v>2099.0</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="7">
         <v>-3.8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="7">
         <v>-3.8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="7">
         <v>0.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="7">
         <v>49.0</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="7">
         <v>-0.4</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="7">
         <v>380.0</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="E15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1">
         <v>380.0</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="7">
         <v>-3.0</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>439.0</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="7">
         <v>-3.5</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="7">
         <v>-3.0</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="7">
         <v>923.0</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="7">
         <v>-0.2</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E16" s="9">
         <v>14921.0</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="7">
         <v>-2.8</v>
       </c>
       <c r="H16" s="11">
         <v>15845.0</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="7">
         <v>-3.0</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="7">
         <v>-2.6</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="7">
         <v>0.4</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="7">
         <v>30.0</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="7">
         <v>-0.2</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="7">
         <v>298.0</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="E17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="1">
         <v>298.0</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="7">
         <v>-2.3</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>328.0</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="7">
         <v>-2.5</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="7">
         <v>-2.2</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="7">
         <v>0.3</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="7">
         <v>17.0</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="7">
         <v>-0.3</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="7">
         <v>138.0</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="E18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="1">
         <v>138.0</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="7">
         <v>-2.2</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>156.0</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="7">
         <v>-2.5</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="7">
         <v>-3.9</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="7">
         <v>-1.4</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="7">
         <v>85.0</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="7">
         <v>-0.7</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="7">
         <v>224.0</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="E19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="1">
         <v>224.0</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="7">
         <v>-1.8</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>309.0</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="7">
         <v>-2.5</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="7">
         <v>-1.8</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="7">
         <v>0.7</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="7">
         <v>4.0</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="7">
         <v>-0.1</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="7">
         <v>73.0</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="E20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="1">
         <v>73.0</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="7">
         <v>-2.2</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>77.0</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="7">
         <v>-2.3</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="7">
         <v>-1.3</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="7">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="7">
         <v>28.0</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="7">
         <v>-0.3</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="7">
         <v>155.0</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="E21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="1">
         <v>155.0</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="7">
         <v>-1.9</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>183.0</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="7">
         <v>-2.3</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="7">
         <v>650.0</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="7">
         <v>-0.4</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F22" s="11">
         <v>2665.0</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="7">
         <v>-1.6</v>
       </c>
       <c r="H22" s="11">
         <v>3315.0</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="7">
         <v>-2.0</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="7">
         <v>-1.5</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="7">
         <v>643.0</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="7">
         <v>-0.4</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="11">
         <v>2339.0</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="7">
         <v>-1.5</v>
       </c>
       <c r="H23" s="11">
         <v>2982.0</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="7">
         <v>-2.0</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="7">
         <v>-1.8</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="7">
         <v>0.2</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="7">
         <v>0.0</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="7">
         <v>0.0</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="7">
         <v>6.0</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="7">
         <v>123.0</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>130.0</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="7">
         <v>-1.8</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>130.0</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="7">
         <v>-1.8</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="7">
         <v>-1.0</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="7">
         <v>0.8</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="7">
         <v>377.0</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="7">
         <v>-0.3</v>
       </c>
       <c r="D25" s="9">
         <v>1665.0</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>32</v>
+      <c r="E25" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F25" s="11">
         <v>1665.0</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="7">
         <v>-1.5</v>
       </c>
       <c r="H25" s="11">
         <v>2042.0</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="7">
         <v>-1.8</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="7">
         <v>-2.4</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="7">
         <v>-0.6</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="7">
         <v>41.0</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="7">
         <v>-0.3</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="7">
         <v>182.0</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="2">
+      <c r="E26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="1">
         <v>182.0</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="7">
         <v>-1.5</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>223.0</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="7">
         <v>-1.8</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="7">
         <v>-1.2</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="7">
         <v>0.6</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="7">
         <v>905.0</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="7">
         <v>-0.4</v>
       </c>
       <c r="D27" s="9">
         <v>3281.0</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>32</v>
+      <c r="E27" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F27" s="11">
         <v>3281.0</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="7">
         <v>-1.4</v>
       </c>
       <c r="H27" s="11">
         <v>4186.0</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="7">
         <v>-1.8</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="7">
         <v>-1.5</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="7">
         <v>0.3</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="7">
         <v>124.0</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="7">
         <v>-0.3</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="7">
         <v>601.0</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="E28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="1">
         <v>601.0</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="7">
         <v>-1.4</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <v>725.0</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="7">
         <v>-1.7</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="7">
         <v>-1.3</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="7">
         <v>0.4</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="7">
         <v>188.0</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="7">
         <v>-0.5</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="7">
         <v>500.0</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="2">
+      <c r="E29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="1">
         <v>500.0</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="7">
         <v>-1.2</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <v>688.0</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="7">
         <v>-1.7</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="7">
         <v>-1.5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="7">
         <v>0.2</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B30" s="9">
         <v>2112.0</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="7">
         <v>-0.5</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F30" s="11">
         <v>4936.0</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="7">
         <v>-1.2</v>
       </c>
       <c r="H30" s="11">
         <v>7048.0</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="7">
         <v>-1.7</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="7">
         <v>-1.5</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="7">
         <v>0.2</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="7">
         <v>149.0</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="7">
         <v>-0.6</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="7">
         <v>269.0</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="2">
+      <c r="E31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="1">
         <v>269.0</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="7">
         <v>-1.1</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>418.0</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="7">
         <v>-1.7</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="7">
         <v>-1.5</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="7">
         <v>0.2</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="7">
         <v>32.0</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="7">
         <v>0.0</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F32" s="11">
         <v>1149.0</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="7">
         <v>-1.6</v>
       </c>
       <c r="H32" s="11">
         <v>1181.0</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="7">
         <v>-1.6</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="7">
         <v>-1.6</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="7">
         <v>0.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="7">
         <v>101.0</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="7">
         <v>-1.3</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="7">
         <v>27.0</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="2">
+      <c r="E33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="1">
         <v>27.0</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="7">
         <v>-0.3</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <v>128.0</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="7">
         <v>-1.6</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="7">
         <v>-2.1</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="7">
         <v>-0.5</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="7">
         <v>373.0</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="7">
         <v>-0.5</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="7">
         <v>843.0</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="2">
+      <c r="E34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="1">
         <v>843.0</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="7">
         <v>-1.1</v>
       </c>
       <c r="H34" s="11">
         <v>1216.0</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="7">
         <v>-1.5</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="7">
         <v>-1.4</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="7">
         <v>0.1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="7">
         <v>261.0</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="7">
         <v>-0.2</v>
       </c>
       <c r="D35" s="9">
         <v>1458.0</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>32</v>
+      <c r="E35" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F35" s="11">
         <v>1458.0</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="7">
         <v>-1.2</v>
       </c>
       <c r="H35" s="11">
         <v>1719.0</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="7">
         <v>-1.4</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="7">
         <v>-1.3</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="7">
         <v>0.1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="7">
         <v>66.0</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="7">
         <v>-0.1</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="7">
         <v>179.0</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="7">
         <v>493.0</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>672.0</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="7">
         <v>-1.2</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="1">
         <v>738.0</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="7">
         <v>-1.3</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="7">
         <v>-1.1</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="7">
         <v>0.2</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="7">
         <v>326.0</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="7">
         <v>-0.4</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="7">
         <v>804.0</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="2">
+      <c r="E37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="1">
         <v>804.0</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="7">
         <v>-0.9</v>
       </c>
       <c r="H37" s="11">
         <v>1129.0</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="7">
         <v>-1.3</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="7">
         <v>-1.2</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="7">
         <v>0.1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="7">
         <v>162.0</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="7">
         <v>-0.2</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="7">
         <v>905.0</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="2">
+      <c r="E38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="1">
         <v>905.0</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="7">
         <v>-1.1</v>
       </c>
       <c r="H38" s="11">
         <v>1066.0</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="7">
         <v>-1.2</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="7">
         <v>-0.7</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="7">
         <v>262.0</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="7">
         <v>-1.2</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>32</v>
+      <c r="E39" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="15"/>
-      <c r="H39" s="2">
+      <c r="H39" s="1">
         <v>262.0</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="7">
         <v>-1.2</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="7">
         <v>-0.2</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="7">
         <v>1.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="7">
         <v>17.0</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="7">
         <v>0.0</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="7">
         <v>99.0</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="7">
         <v>342.0</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <v>441.0</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="7">
         <v>-1.0</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="1">
         <v>458.0</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="7">
         <v>-1.1</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="7">
         <v>-0.9</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="7">
         <v>0.2</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="7">
         <v>118.0</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="7">
         <v>-0.3</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="7">
         <v>363.0</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" s="2">
+      <c r="E41" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="1">
         <v>363.0</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="7">
         <v>-0.9</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="1">
         <v>436.0</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="7">
         <v>-1.1</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="7">
         <v>-1.3</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="7">
         <v>-0.2</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="7">
         <v>45.0</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="7">
         <v>-0.4</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="7">
         <v>94.0</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="2">
+      <c r="E42" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="1">
         <v>94.0</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="7">
         <v>-0.8</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="1">
         <v>139.0</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="7">
         <v>-1.1</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="7">
         <v>-1.0</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="7">
         <v>0.1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="7">
         <v>237.0</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="7">
         <v>-0.3</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="7">
         <v>494.0</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" s="2">
+      <c r="E43" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="1">
         <v>494.0</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="7">
         <v>-0.7</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="1">
         <v>731.0</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="7">
         <v>-1.0</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="7">
         <v>-0.9</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="7">
         <v>0.1</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C44" s="15"/>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G44" s="15"/>
-      <c r="H44" s="2">
+      <c r="H44" s="1">
         <v>22.0</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="7">
         <v>-0.9</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="7">
         <v>-0.1</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="7">
         <v>0.8</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="7">
         <v>162.0</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="7">
         <v>-0.1</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="7">
         <v>871.0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="2">
+      <c r="E45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="1">
         <v>871.0</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="7">
         <v>-0.7</v>
       </c>
       <c r="H45" s="11">
         <v>1032.0</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="7">
         <v>-0.8</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="7">
         <v>-0.8</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="7">
         <v>0.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="7">
         <v>64.0</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="7">
         <v>-0.1</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="7">
         <v>414.0</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F46" s="2">
+      <c r="E46" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="1">
         <v>414.0</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="7">
         <v>-0.6</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="1">
         <v>501.0</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="7">
         <v>-0.7</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="7">
         <v>-0.6</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="7">
         <v>0.1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="7">
         <v>331.0</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="7">
         <v>-0.1</v>
       </c>
       <c r="D47" s="9">
         <v>1335.0</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>32</v>
+      <c r="E47" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F47" s="11">
         <v>1335.0</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="7">
         <v>-0.6</v>
       </c>
       <c r="H47" s="11">
         <v>1666.0</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="7">
         <v>-0.7</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="7">
         <v>-0.7</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="7">
         <v>0.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="7">
         <v>2.0</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="7">
         <v>-0.2</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="7">
         <v>5.0</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F48" s="2">
+      <c r="E48" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="1">
         <v>5.0</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="7">
         <v>-0.5</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="1">
         <v>7.0</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="7">
         <v>-0.7</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="7">
         <v>-0.6</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="7">
         <v>0.1</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="7">
         <v>128.0</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="7">
         <v>-0.2</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="7">
         <v>286.0</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="2">
+      <c r="E49" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="1">
         <v>286.0</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="7">
         <v>-0.5</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="1">
         <v>414.0</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="7">
         <v>-0.7</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="7">
         <v>-0.6</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="7">
         <v>0.1</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="7">
         <v>109.0</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="7">
         <v>-0.2</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="7">
         <v>27.0</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="7">
         <v>322.0</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>349.0</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="7">
         <v>-0.5</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="1">
         <v>458.0</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="7">
         <v>-0.7</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="7">
         <v>-0.8</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="7">
         <v>-0.1</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="7">
         <v>48.0</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="7">
         <v>0.0</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="7">
         <v>427.0</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" s="2">
+      <c r="E51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="1">
         <v>427.0</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="7">
         <v>-0.4</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="1">
         <v>474.0</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="7">
         <v>-0.5</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="7">
         <v>-1.0</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="7">
         <v>-0.5</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="7">
         <v>20.0</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="7">
         <v>-0.2</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="7">
         <v>27.0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="2">
+      <c r="E52" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="1">
         <v>27.0</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="7">
         <v>-0.2</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="1">
         <v>47.0</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="7">
         <v>-0.4</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="7">
         <v>-2.0</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="7">
         <v>-1.6</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="7">
         <v>23.0</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="7">
         <v>0.0</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>32</v>
+      <c r="E53" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="15"/>
-      <c r="H53" s="2">
+      <c r="H53" s="1">
         <v>23.0</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="7">
         <v>0.0</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53" s="7">
         <v>0.0</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="7">
         <v>0.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G54" s="15"/>
-      <c r="H54" s="2" t="s">
+      <c r="H54" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I54" s="15"/>
-      <c r="J54" s="3">
+      <c r="J54" s="7">
         <v>-1.1</v>
       </c>
       <c r="K54" s="15"/>
@@ -2385,90 +2374,90 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="7">
         <v>6.4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7">
         <v>6.1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7">
         <v>6.1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7">
         <v>5.9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7">
         <v>5.9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="A7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7">
         <v>5.6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="A8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="7">
         <v>4.6</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="A9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="7">
         <v>4.5</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="A10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="7">
         <v>4.3</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="A11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="7">
         <v>4.3</v>
       </c>
     </row>
